--- a/tests/models/features/multiple_problems/sets.xlsx
+++ b/tests/models/features/multiple_problems/sets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\models\features\multiple_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CE5830-2829-4A96-8F2C-D1FB12EBF2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC00CB7E-4037-4A35-9275-F9FDA4F984E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_set_scenarios" sheetId="1" r:id="rId1"/>
@@ -24,15 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>scenarios</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
     <t>reference</t>
   </si>
   <si>
@@ -52,6 +43,15 @@
   </si>
   <si>
     <t>product 2</t>
+  </si>
+  <si>
+    <t>p_Names</t>
+  </si>
+  <si>
+    <t>u_Names</t>
+  </si>
+  <si>
+    <t>s_Names</t>
   </si>
 </sst>
 </file>
@@ -416,25 +416,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -447,29 +447,29 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -481,25 +481,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/tests/models/features/multiple_problems/sets.xlsx
+++ b/tests/models/features/multiple_problems/sets.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\models\features\multiple_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC00CB7E-4037-4A35-9275-F9FDA4F984E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9360FFA9-91EA-4FEC-8E6D-27223128B7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11170" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="_set_scenarios" sheetId="1" r:id="rId1"/>
-    <sheet name="_set_uncertainty" sheetId="2" r:id="rId2"/>
-    <sheet name="_set_products" sheetId="3" r:id="rId3"/>
+    <sheet name="_set_SCENARIOS" sheetId="1" r:id="rId1"/>
+    <sheet name="_set_UNCERTAINTY" sheetId="2" r:id="rId2"/>
+    <sheet name="_set_PRODUCTS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>reference</t>
   </si>
@@ -45,13 +45,16 @@
     <t>product 2</t>
   </si>
   <si>
-    <t>p_Names</t>
-  </si>
-  <si>
-    <t>u_Names</t>
-  </si>
-  <si>
-    <t>s_Names</t>
+    <t>products_Name</t>
+  </si>
+  <si>
+    <t>scenarios_Name</t>
+  </si>
+  <si>
+    <t>uncertainty_Name</t>
+  </si>
+  <si>
+    <t>products_Aggregation</t>
   </si>
 </sst>
 </file>
@@ -416,38 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,17 +432,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -477,27 +445,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A3"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
